--- a/player-analysis/server/customer_model_data/product_preferences.csv.xlsx
+++ b/player-analysis/server/customer_model_data/product_preferences.csv.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectDocs\angular_projects\graphs-app\customer_model_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prototype_login\customer_model_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Customers</t>
   </si>
@@ -32,41 +32,47 @@
     <t>distribution</t>
   </si>
   <si>
-    <t>No Activity</t>
-  </si>
-  <si>
-    <t>Entire Lifecycle Stage</t>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Percent_of_Casino_Normalized_Wager_Lifetime</t>
+  </si>
+  <si>
+    <t>Percent_of_Sport_Normalized_Wager_Lifetime</t>
+  </si>
+  <si>
+    <t>future_value</t>
+  </si>
+  <si>
+    <t>Activity_type</t>
+  </si>
+  <si>
+    <t>HybridSportsDominance</t>
   </si>
   <si>
     <t>2016_09_10</t>
   </si>
   <si>
-    <t>2016_08_27</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Percent_of_Casino_Normalized_Wager_Lifetime</t>
-  </si>
-  <si>
-    <t>Percent_of_Sport_Normalized_Wager_Lifetime</t>
-  </si>
-  <si>
-    <t>future_value</t>
-  </si>
-  <si>
-    <t>Activity_type</t>
+    <t>PureSports</t>
+  </si>
+  <si>
+    <t>PureEgaming</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>HybridEgamingDominance</t>
+  </si>
+  <si>
+    <t>2016_09_25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,19 +83,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -115,13 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,134 +427,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
+    <col min="5" max="5" width="38.75" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>54728</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4661</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
-        <v>100</v>
+      <c r="F2" s="2">
+        <f>C2/SUM($C$2:$C$6)</f>
+        <v>0.77463852418148582</v>
+      </c>
+      <c r="G2">
+        <v>997.94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>54728</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>328</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="F3" s="2">
+        <f>C3/SUM($C$2:$C$6)</f>
+        <v>5.4512215389729099E-2</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>879.06</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>5000</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>300</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>320</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E4" s="2">
+        <f>1-D4</f>
+        <v>0.65</v>
+      </c>
+      <c r="F4" s="2">
+        <f>C4/SUM($C$2:$C$6)</f>
+        <v>5.3182649160711318E-2</v>
+      </c>
+      <c r="G4">
+        <v>730.48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>5000</v>
-      </c>
-      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>496</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="2">
+        <f>1-D5</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F5" s="2">
+        <f>C5/SUM($C$2:$C$6)</f>
+        <v>8.2433106199102546E-2</v>
+      </c>
+      <c r="G5">
+        <v>1025.6199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>212</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="2">
+        <f>1-D6</f>
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="2">
+        <f>C6/SUM($C$2:$C$6)</f>
+        <v>3.5233505068971251E-2</v>
+      </c>
+      <c r="G6">
+        <v>1274.3499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4661</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <f>C7/SUM($C$2:$C$6)</f>
+        <v>0.77463852418148582</v>
+      </c>
+      <c r="G7">
+        <v>997.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>328</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>400</v>
+      <c r="F8" s="2">
+        <f>C8/SUM($C$2:$C$6)</f>
+        <v>5.4512215389729099E-2</v>
+      </c>
+      <c r="G8">
+        <v>879.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>320</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="2">
+        <f>1-D9</f>
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="2">
+        <f>C9/SUM($C$2:$C$6)</f>
+        <v>5.3182649160711318E-2</v>
+      </c>
+      <c r="G9">
+        <v>730.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>496</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E10" s="2">
+        <f>1-D10</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <f>C10/SUM($C$2:$C$6)</f>
+        <v>8.2433106199102546E-2</v>
+      </c>
+      <c r="G10">
+        <v>1025.6199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>212</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2">
+        <f>1-D11</f>
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="2">
+        <f>C11/SUM($C$2:$C$6)</f>
+        <v>3.5233505068971251E-2</v>
+      </c>
+      <c r="G11">
+        <v>1274.3499999999999</v>
       </c>
     </row>
   </sheetData>
